--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H2">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I2">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J2">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>0.1714360936226667</v>
+        <v>1.599199826335667</v>
       </c>
       <c r="R2">
-        <v>1.542924842604</v>
+        <v>14.392798437021</v>
       </c>
       <c r="S2">
-        <v>0.006307862388980835</v>
+        <v>0.02772600048794305</v>
       </c>
       <c r="T2">
-        <v>0.006307862388980834</v>
+        <v>0.02772600048794305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H3">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I3">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J3">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>0.1044164145471111</v>
+        <v>0.3662838701436666</v>
       </c>
       <c r="R3">
-        <v>0.9397477309239999</v>
+        <v>3.296554831293</v>
       </c>
       <c r="S3">
-        <v>0.003841923600777087</v>
+        <v>0.006350417624543531</v>
       </c>
       <c r="T3">
-        <v>0.003841923600777087</v>
+        <v>0.006350417624543529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H4">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I4">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J4">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>0.03994140334355556</v>
+        <v>0.1830437945186666</v>
       </c>
       <c r="R4">
-        <v>0.359472630092</v>
+        <v>1.647394150668</v>
       </c>
       <c r="S4">
-        <v>0.001469613956956239</v>
+        <v>0.003173507308194429</v>
       </c>
       <c r="T4">
-        <v>0.001469613956956239</v>
+        <v>0.003173507308194428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06414266666666667</v>
+        <v>0.225007</v>
       </c>
       <c r="H5">
-        <v>0.192428</v>
+        <v>0.675021</v>
       </c>
       <c r="I5">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="J5">
-        <v>0.01166313146606535</v>
+        <v>0.0376013806128968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.001188542232444444</v>
+        <v>0.02027148064866667</v>
       </c>
       <c r="R5">
-        <v>0.010696880092</v>
+        <v>0.182443325838</v>
       </c>
       <c r="S5">
-        <v>4.373151935118743E-05</v>
+        <v>0.0003514551922157902</v>
       </c>
       <c r="T5">
-        <v>4.373151935118743E-05</v>
+        <v>0.0003514551922157902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H6">
         <v>13.21205</v>
       </c>
       <c r="I6">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J6">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>11.77075186951667</v>
+        <v>31.30081592356111</v>
       </c>
       <c r="R6">
-        <v>105.93676682565</v>
+        <v>281.7073433120501</v>
       </c>
       <c r="S6">
-        <v>0.4330959801917301</v>
+        <v>0.5426754200931942</v>
       </c>
       <c r="T6">
-        <v>0.4330959801917301</v>
+        <v>0.5426754200931941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H7">
         <v>13.21205</v>
       </c>
       <c r="I7">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J7">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>7.169200375294444</v>
       </c>
       <c r="R7">
-        <v>64.52280337764999</v>
+        <v>64.52280337765001</v>
       </c>
       <c r="S7">
-        <v>0.2637853467772201</v>
+        <v>0.1242954444029895</v>
       </c>
       <c r="T7">
-        <v>0.2637853467772202</v>
+        <v>0.1242954444029895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H8">
         <v>13.21205</v>
       </c>
       <c r="I8">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J8">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>2.742365030272222</v>
+        <v>3.582679302377778</v>
       </c>
       <c r="R8">
-        <v>24.68128527245</v>
+        <v>32.24411372140001</v>
       </c>
       <c r="S8">
-        <v>0.1009032629347272</v>
+        <v>0.06211441900508312</v>
       </c>
       <c r="T8">
-        <v>0.1009032629347272</v>
+        <v>0.0621144190050831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.404016666666666</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H9">
         <v>13.21205</v>
       </c>
       <c r="I9">
-        <v>0.8007871831865877</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="J9">
-        <v>0.8007871831865876</v>
+        <v>0.7359642451518149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>0.08160496082777777</v>
+        <v>0.3967696055444445</v>
       </c>
       <c r="R9">
-        <v>0.7344446474499999</v>
+        <v>3.5709264499</v>
       </c>
       <c r="S9">
-        <v>0.003002593282910262</v>
+        <v>0.006878961650548105</v>
       </c>
       <c r="T9">
-        <v>0.003002593282910262</v>
+        <v>0.006878961650548105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I10">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J10">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>0.7866506606646666</v>
+        <v>2.091863612330444</v>
       </c>
       <c r="R10">
-        <v>7.079855945982</v>
+        <v>18.826772510974</v>
       </c>
       <c r="S10">
-        <v>0.02894422061783089</v>
+        <v>0.03626751990655257</v>
       </c>
       <c r="T10">
-        <v>0.02894422061783089</v>
+        <v>0.03626751990655257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I11">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J11">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
         <v>0.4791245516157777</v>
@@ -1131,10 +1131,10 @@
         <v>4.312120964541999</v>
       </c>
       <c r="S11">
-        <v>0.01762902825717955</v>
+        <v>0.008306784013554688</v>
       </c>
       <c r="T11">
-        <v>0.01762902825717956</v>
+        <v>0.008306784013554686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I12">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J12">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>0.1832748907428889</v>
+        <v>0.2394339011991111</v>
       </c>
       <c r="R12">
-        <v>1.649474016686</v>
+        <v>2.154905110792</v>
       </c>
       <c r="S12">
-        <v>0.006743462043099124</v>
+        <v>0.004151166322152447</v>
       </c>
       <c r="T12">
-        <v>0.006743462043099125</v>
+        <v>0.004151166322152447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,40 +1225,40 @@
         <v>0.8829739999999999</v>
       </c>
       <c r="I13">
-        <v>0.05351737711308949</v>
+        <v>0.04918519786094349</v>
       </c>
       <c r="J13">
-        <v>0.05351737711308949</v>
+        <v>0.0491851978609435</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>0.00545373796511111</v>
+        <v>0.02651649408577778</v>
       </c>
       <c r="R13">
-        <v>0.049083641686</v>
+        <v>0.238648446772</v>
       </c>
       <c r="S13">
-        <v>0.0002006661949799164</v>
+        <v>0.0004597276186837819</v>
       </c>
       <c r="T13">
-        <v>0.0002006661949799165</v>
+        <v>0.000459727618683782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H14">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I14">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J14">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>1.970137729285333</v>
+        <v>7.538469265109111</v>
       </c>
       <c r="R14">
-        <v>17.731239563568</v>
+        <v>67.846223385982</v>
       </c>
       <c r="S14">
-        <v>0.07248973901040848</v>
+        <v>0.1306976145699556</v>
       </c>
       <c r="T14">
-        <v>0.07248973901040848</v>
+        <v>0.1306976145699556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H15">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I15">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J15">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>1.199949867667556</v>
+        <v>1.726625811178444</v>
       </c>
       <c r="R15">
-        <v>10.799548809008</v>
+        <v>15.539632300606</v>
       </c>
       <c r="S15">
-        <v>0.0441512547269214</v>
+        <v>0.02993523842040511</v>
       </c>
       <c r="T15">
-        <v>0.04415125472692141</v>
+        <v>0.0299352384204051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H16">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I16">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J16">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.4590052422737778</v>
+        <v>0.8628502807617777</v>
       </c>
       <c r="R16">
-        <v>4.131047180464</v>
+        <v>7.765652526856</v>
       </c>
       <c r="S16">
-        <v>0.016888753371017</v>
+        <v>0.01495959848885164</v>
       </c>
       <c r="T16">
-        <v>0.016888753371017</v>
+        <v>0.01495959848885164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7371253333333333</v>
+        <v>1.060660666666667</v>
       </c>
       <c r="H17">
-        <v>2.211376</v>
+        <v>3.181982</v>
       </c>
       <c r="I17">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="J17">
-        <v>0.1340323082342576</v>
+        <v>0.1772491763743448</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>0.01365868671822222</v>
+        <v>0.09555774788844446</v>
       </c>
       <c r="R17">
-        <v>0.122928180464</v>
+        <v>0.860019730996</v>
       </c>
       <c r="S17">
-        <v>0.0005025611259107377</v>
+        <v>0.001656724895132425</v>
       </c>
       <c r="T17">
-        <v>0.0005025611259107378</v>
+        <v>0.001656724895132425</v>
       </c>
     </row>
   </sheetData>
